--- a/data/TT204/TT204_asynch_NCAPD2ix_tl_2_4_R3D_D3D_cell 1_info.xlsx
+++ b/data/TT204/TT204_asynch_NCAPD2ix_tl_2_4_R3D_D3D_cell 1_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/John Eyk 3/2021-cI and cII analysis/Thymidine arrest-release/20220204/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MGierlinski/Work/Projects/ChromCom2/data/TT204/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8208E73-8188-AE46-B2CE-DC93340AE929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D5094F-C287-A847-81A3-7BA6163149B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="6120" windowWidth="21840" windowHeight="13980" xr2:uid="{8C39666A-446B-D147-9AF3-359090304C31}"/>
+    <workbookView xWindow="49740" yWindow="940" windowWidth="21840" windowHeight="13980" activeTab="1" xr2:uid="{8C39666A-446B-D147-9AF3-359090304C31}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>file name</t>
   </si>
@@ -115,13 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36505A82-A8B1-9144-A623-123A2F43EF83}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -486,7 +485,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -502,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166C6B2A-DC61-524E-940E-A81F1FF8FEB1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,48 +545,16 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
